--- a/ONCHO/Breeding Site Survey/Ghana/gn_oncho_bsc_1_capture_202207.xlsx
+++ b/ONCHO/Breeding Site Survey/Ghana/gn_oncho_bsc_1_capture_202207.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$D$54</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="201">
   <si>
     <t>type</t>
   </si>
@@ -54,28 +58,67 @@
     <t>choice_filter</t>
   </si>
   <si>
+    <t>select_one region</t>
+  </si>
+  <si>
+    <t>s_region</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>select_one district</t>
+  </si>
+  <si>
+    <t>s_district</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>region = ${s_region}</t>
+  </si>
+  <si>
+    <t>select_one transmission_zone</t>
+  </si>
+  <si>
+    <t>s_transmission_zone</t>
+  </si>
+  <si>
+    <t>Transmission Zone</t>
+  </si>
+  <si>
+    <t>district = ${s_district}</t>
+  </si>
+  <si>
+    <t>select_one community</t>
+  </si>
+  <si>
+    <t>s_community</t>
+  </si>
+  <si>
+    <t>Community Name</t>
+  </si>
+  <si>
+    <t>transmission_zone = ${s_transmission_zone}</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
-    <t>s_region</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>s_district</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>s_transmission_zonz</t>
-  </si>
-  <si>
-    <t>Transmission Zone</t>
+    <t>s_site</t>
+  </si>
+  <si>
+    <t>Catching site</t>
+  </si>
+  <si>
+    <t>s_site_id</t>
+  </si>
+  <si>
+    <t>Site Code</t>
   </si>
   <si>
     <t>geopoint</t>
@@ -90,24 +133,6 @@
     <t>Works best outside of buildings</t>
   </si>
   <si>
-    <t>s_village</t>
-  </si>
-  <si>
-    <t>Village Name</t>
-  </si>
-  <si>
-    <t>s_site</t>
-  </si>
-  <si>
-    <t>Catching site</t>
-  </si>
-  <si>
-    <t>s_site_id</t>
-  </si>
-  <si>
-    <t>Site Code</t>
-  </si>
-  <si>
     <t>s_river</t>
   </si>
   <si>
@@ -204,7 +229,13 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>region_list</t>
+    <t>region</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>transmission_zone</t>
   </si>
   <si>
     <t>07:00 – 08:00</t>
@@ -261,6 +292,306 @@
     <t>Windy</t>
   </si>
   <si>
+    <t>Ashanti</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Oti</t>
+  </si>
+  <si>
+    <t>Volta</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Adansi South</t>
+  </si>
+  <si>
+    <t>Asante Akim South</t>
+  </si>
+  <si>
+    <t>Bosome Freho</t>
+  </si>
+  <si>
+    <t>Offinso South</t>
+  </si>
+  <si>
+    <t>Assin Central</t>
+  </si>
+  <si>
+    <t>Dunkwa-On-Offin</t>
+  </si>
+  <si>
+    <t>Twifo Praso</t>
+  </si>
+  <si>
+    <t>Upper Denkyira West</t>
+  </si>
+  <si>
+    <t>Birim North</t>
+  </si>
+  <si>
+    <t>Kwaebibirem</t>
+  </si>
+  <si>
+    <t>Kwahu Afram Plains</t>
+  </si>
+  <si>
+    <t>Kwahu South</t>
+  </si>
+  <si>
+    <t>Yilo Krobo</t>
+  </si>
+  <si>
+    <t>Jasikan</t>
+  </si>
+  <si>
+    <t>Kadjebi</t>
+  </si>
+  <si>
+    <t>Krachi-East</t>
+  </si>
+  <si>
+    <t>Nkwanta South</t>
+  </si>
+  <si>
+    <t>Ho West</t>
+  </si>
+  <si>
+    <t>Hohoe</t>
+  </si>
+  <si>
+    <t>Kpando</t>
+  </si>
+  <si>
+    <t>Kpando Municipal</t>
+  </si>
+  <si>
+    <t>Wassa East</t>
+  </si>
+  <si>
+    <t>Owusukrom</t>
+  </si>
+  <si>
+    <t>Pra-Offin Conference</t>
+  </si>
+  <si>
+    <t>Gyankobaa</t>
+  </si>
+  <si>
+    <t>Gyimakyi</t>
+  </si>
+  <si>
+    <t>Abofour</t>
+  </si>
+  <si>
+    <t>Ayensua</t>
+  </si>
+  <si>
+    <t>Awisam</t>
+  </si>
+  <si>
+    <t>Pra-Offin Confluence</t>
+  </si>
+  <si>
+    <t>Adwumam</t>
+  </si>
+  <si>
+    <t>Tofue</t>
+  </si>
+  <si>
+    <t>Wromaso</t>
+  </si>
+  <si>
+    <t>Amuana Praso</t>
+  </si>
+  <si>
+    <t>Okyinso</t>
+  </si>
+  <si>
+    <t>Afram</t>
+  </si>
+  <si>
+    <t>Asuboni</t>
+  </si>
+  <si>
+    <t>Boti</t>
+  </si>
+  <si>
+    <t>Menusu (Jasikan)</t>
+  </si>
+  <si>
+    <t>Ahamansu</t>
+  </si>
+  <si>
+    <t>Asukawkaw (Kadjebi)</t>
+  </si>
+  <si>
+    <t>Dodofie</t>
+  </si>
+  <si>
+    <t>Dormabin</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Menusu (Kadjebi)</t>
+  </si>
+  <si>
+    <t>Asukawkaw (Krachi-East)</t>
+  </si>
+  <si>
+    <t>Tutukpene</t>
+  </si>
+  <si>
+    <t>Holuta (Ho West)</t>
+  </si>
+  <si>
+    <t>Agamatsu</t>
+  </si>
+  <si>
+    <t>Alavanyo South</t>
+  </si>
+  <si>
+    <t>Wegbe</t>
+  </si>
+  <si>
+    <t>Gbefi-Gadza</t>
+  </si>
+  <si>
+    <t>Holuta (Kpando Municipal)</t>
+  </si>
+  <si>
+    <t>Bosomase</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>Ataasi</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kumeso</t>
+  </si>
+  <si>
+    <t>Kumeaboi</t>
+  </si>
+  <si>
+    <t>Muronaim</t>
+  </si>
+  <si>
+    <t>Menti</t>
+  </si>
+  <si>
+    <t>Asuboi</t>
+  </si>
+  <si>
+    <t>Kwapanin</t>
+  </si>
+  <si>
+    <t>Ayensua Kokor</t>
+  </si>
+  <si>
+    <t>Offinso Old Town</t>
+  </si>
+  <si>
+    <t>Waaso</t>
+  </si>
+  <si>
+    <t>Kwabenakrom</t>
+  </si>
+  <si>
+    <t>Subriso</t>
+  </si>
+  <si>
+    <t>Daman</t>
+  </si>
+  <si>
+    <t>Ampabena</t>
+  </si>
+  <si>
+    <t>Amenam</t>
+  </si>
+  <si>
+    <t>Mamanso</t>
+  </si>
+  <si>
+    <t>Asuom</t>
+  </si>
+  <si>
+    <t>Pram</t>
+  </si>
+  <si>
+    <t>Amartey - Oworonbon</t>
+  </si>
+  <si>
+    <t>Opesika</t>
+  </si>
+  <si>
+    <t>Ponponse</t>
+  </si>
+  <si>
+    <t>Dzolu</t>
+  </si>
+  <si>
+    <t>Pillar 83</t>
+  </si>
+  <si>
+    <t>Dodo Fie</t>
+  </si>
+  <si>
+    <t>Dodo-Tamale</t>
+  </si>
+  <si>
+    <t>Bumbuso</t>
+  </si>
+  <si>
+    <t>Menuso</t>
+  </si>
+  <si>
+    <t>Ananikope</t>
+  </si>
+  <si>
+    <t>Papaase</t>
+  </si>
+  <si>
+    <t>Akposo-Kabo</t>
+  </si>
+  <si>
+    <t>Asukawkaw</t>
+  </si>
+  <si>
+    <t>Holuta</t>
+  </si>
+  <si>
+    <t>Wli</t>
+  </si>
+  <si>
+    <t>Abeheanase</t>
+  </si>
+  <si>
+    <t>Gbefi</t>
+  </si>
+  <si>
+    <t>Kudzra</t>
+  </si>
+  <si>
+    <t>Bonsie</t>
+  </si>
+  <si>
+    <t>Sekyere Heman</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -273,13 +604,25 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(2022 July) - 1. Coordinate Site</t>
-  </si>
-  <si>
-    <t>gn_oncho_bsc_1_capture_202207</t>
+    <t>(2022 July) - 1. Coordinate Site V2</t>
+  </si>
+  <si>
+    <t>gn_oncho_bsc_1_capture_202207_v2</t>
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Name of Region</t>
+  </si>
+  <si>
+    <t>Name District</t>
+  </si>
+  <si>
+    <t>Transmission Foci</t>
+  </si>
+  <si>
+    <t>Name of Community</t>
   </si>
 </sst>
 </file>
@@ -288,9 +631,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -331,11 +674,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,9 +707,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,22 +743,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -385,15 +750,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,56 +782,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,8 +810,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,13 +833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,31 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,13 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,19 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +929,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +983,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,25 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,29 +1013,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -695,6 +1053,15 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,15 +1081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -734,6 +1092,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,17 +1135,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,174 +1154,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -953,47 +1314,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1049,6 +1410,15 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
@@ -1325,17 +1695,17 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.7185185185185" customWidth="1"/>
+    <col min="1" max="1" width="26.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="17.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="29.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="37.8888888888889" customWidth="1"/>
@@ -1346,478 +1716,483 @@
     <col min="9" max="9" width="12.6074074074074" customWidth="1"/>
     <col min="10" max="10" width="9.71851851851852" customWidth="1"/>
     <col min="11" max="11" width="13.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="28.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="39.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="6" customFormat="1" ht="18" spans="1:13">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:11">
-      <c r="A2" s="13" t="s">
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:11">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:12">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:12">
-      <c r="A4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:12">
+      <c r="A4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:12">
-      <c r="A5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="12" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:12">
+      <c r="A5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:12">
-      <c r="A6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:12">
+      <c r="A6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:12">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:11">
+      <c r="A8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
+      <c r="A9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:12">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:12">
-      <c r="A10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" s="6" customFormat="1" spans="1:12">
+      <c r="A11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:12">
-      <c r="A11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" s="6" customFormat="1" spans="1:12">
+      <c r="A12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:12">
-      <c r="A12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:12">
+      <c r="A13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" s="6" customFormat="1" spans="1:12">
+      <c r="A14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:12">
-      <c r="A13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:12">
-      <c r="A14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" s="6" customFormat="1" spans="1:12">
+      <c r="A15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:12">
-      <c r="A15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" s="6" customFormat="1" spans="1:12">
+      <c r="A16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:12">
-      <c r="A16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="H16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" s="6" customFormat="1" spans="1:12">
+      <c r="A17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="H17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:12">
-      <c r="A17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="H17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:12">
-      <c r="A18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="1:12">
+      <c r="A18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="H18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="H18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:12">
-      <c r="A19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:12">
-      <c r="A20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:12">
-      <c r="A21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="2:7">
-      <c r="B22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:12">
+      <c r="A19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:12">
+      <c r="A20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:12">
+      <c r="A21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="2:7">
+      <c r="B22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="G22"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="2:7">
-      <c r="B23" s="17"/>
-      <c r="D23" s="17"/>
+    <row r="23" s="6" customFormat="1" spans="2:7">
+      <c r="B23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="G23"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="2:7">
+    <row r="24" s="6" customFormat="1" spans="2:7">
       <c r="B24"/>
       <c r="D24"/>
       <c r="G24"/>
@@ -1832,227 +2207,1810 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:A136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3851851851852" customWidth="1"/>
-    <col min="2" max="2" width="39.6074074074074" customWidth="1"/>
+    <col min="1" max="1" width="16.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="23.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="13.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="12.3851851851852" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="10"/>
+      <c r="D1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" t="s">
+        <v>151</v>
+      </c>
+      <c r="F84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" t="s">
+        <v>152</v>
+      </c>
+      <c r="F86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" t="s">
+        <v>153</v>
+      </c>
+      <c r="F87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" t="s">
+        <v>156</v>
+      </c>
+      <c r="F92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" t="s">
+        <v>157</v>
+      </c>
+      <c r="F93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" t="s">
+        <v>158</v>
+      </c>
+      <c r="F94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" t="s">
+        <v>160</v>
+      </c>
+      <c r="F96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" t="s">
+        <v>162</v>
+      </c>
+      <c r="F100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
+        <v>163</v>
+      </c>
+      <c r="F101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" t="s">
+        <v>164</v>
+      </c>
+      <c r="F102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" t="s">
+        <v>127</v>
+      </c>
+      <c r="F103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" t="s">
+        <v>165</v>
+      </c>
+      <c r="F104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+      <c r="F105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" t="s">
+        <v>129</v>
+      </c>
+      <c r="F106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" t="s">
+        <v>167</v>
+      </c>
+      <c r="F107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>168</v>
+      </c>
+      <c r="F108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" t="s">
+        <v>130</v>
+      </c>
+      <c r="F109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" t="s">
+        <v>170</v>
+      </c>
+      <c r="F111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" t="s">
+        <v>132</v>
+      </c>
+      <c r="F112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" t="s">
+        <v>133</v>
+      </c>
+      <c r="F113" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" t="s">
+        <v>171</v>
+      </c>
+      <c r="F114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" t="s">
+        <v>172</v>
+      </c>
+      <c r="F115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" t="s">
+        <v>173</v>
+      </c>
+      <c r="F116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" t="s">
+        <v>135</v>
+      </c>
+      <c r="F117" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" t="s">
+        <v>174</v>
+      </c>
+      <c r="F118" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" t="s">
+        <v>175</v>
+      </c>
+      <c r="F119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>150</v>
+      </c>
+      <c r="B120" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+      <c r="F120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" t="s">
+        <v>177</v>
+      </c>
+      <c r="F121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122" t="s">
+        <v>178</v>
+      </c>
+      <c r="F122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" t="s">
+        <v>179</v>
+      </c>
+      <c r="F123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" t="s">
+        <v>180</v>
+      </c>
+      <c r="F124" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" t="s">
+        <v>181</v>
+      </c>
+      <c r="F125" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" t="s">
+        <v>182</v>
+      </c>
+      <c r="F126" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
+        <v>183</v>
+      </c>
+      <c r="C128" t="s">
+        <v>183</v>
+      </c>
+      <c r="F128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" t="s">
+        <v>184</v>
+      </c>
+      <c r="C129" t="s">
+        <v>184</v>
+      </c>
+      <c r="F129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+      <c r="F130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" t="s">
+        <v>146</v>
+      </c>
+      <c r="F131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" t="s">
+        <v>186</v>
+      </c>
+      <c r="C132" t="s">
+        <v>186</v>
+      </c>
+      <c r="F132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" t="s">
+        <v>187</v>
+      </c>
+      <c r="C133" t="s">
+        <v>187</v>
+      </c>
+      <c r="F133" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" t="s">
+        <v>188</v>
+      </c>
+      <c r="C134" t="s">
+        <v>188</v>
+      </c>
+      <c r="F134" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135" t="s">
+        <v>149</v>
+      </c>
+      <c r="F135" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" t="s">
+        <v>189</v>
+      </c>
+      <c r="F136" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2071,42 +4029,42 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="44.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="25.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="30.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
+      <c r="A1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
+      <c r="A2" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C2">
         <v>20210625</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2114,4 +4072,1204 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="22.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="14.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="23.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="23.5555555555556" customWidth="1"/>
+    <col min="16" max="16" width="19.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2"/>
+      <c r="G2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3"/>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4"/>
+      <c r="G4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6"/>
+      <c r="G6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7"/>
+      <c r="G7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8"/>
+      <c r="I8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9"/>
+      <c r="I9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10"/>
+      <c r="I10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11"/>
+      <c r="I11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12"/>
+      <c r="I12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13"/>
+      <c r="I13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14"/>
+      <c r="I14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15"/>
+      <c r="I15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16"/>
+      <c r="I16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17"/>
+      <c r="I17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18"/>
+      <c r="I18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19"/>
+      <c r="I19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20"/>
+      <c r="I20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21"/>
+      <c r="I21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22"/>
+      <c r="I22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23"/>
+      <c r="I23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24"/>
+      <c r="L24" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25"/>
+      <c r="L25" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26"/>
+      <c r="L26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27"/>
+      <c r="L27" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28"/>
+      <c r="L28" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29"/>
+      <c r="L29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30"/>
+      <c r="L30" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31"/>
+      <c r="L31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32"/>
+      <c r="L32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33"/>
+      <c r="L33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34"/>
+      <c r="L34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D54">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:D54">
+    <sortCondition ref="A2:A54"/>
+    <sortCondition ref="B2:B54"/>
+    <sortCondition ref="C2:C54"/>
+    <sortCondition ref="D2:D54"/>
+  </sortState>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J$1:J$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M34 M55:M1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ONCHO/Breeding Site Survey/Ghana/gn_oncho_bsc_1_capture_202207.xlsx
+++ b/ONCHO/Breeding Site Survey/Ghana/gn_oncho_bsc_1_capture_202207.xlsx
@@ -541,7 +541,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(2022 Auguste) - 1. Coordinate Site</t>
+    <t>(2022 August) - 1. Coordinate Site</t>
   </si>
   <si>
     <t>gn_oncho_bsc_1_capture_202208</t>
@@ -567,12 +567,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -582,21 +582,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -628,21 +613,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,7 +643,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,21 +674,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,7 +688,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,14 +703,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,21 +726,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -756,7 +734,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,25 +770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +806,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +854,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,13 +908,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,13 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,91 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,6 +994,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1033,21 +1033,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1059,6 +1044,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,21 +1083,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1109,167 +1094,166 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1290,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1311,13 +1295,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,482 +1663,482 @@
     <col min="12" max="12" width="39.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="6" customFormat="1" ht="18" spans="1:13">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:12">
-      <c r="A2" s="18" t="s">
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:12">
+      <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:12">
+      <c r="K2" s="9"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:12">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:12">
-      <c r="A4" s="18" t="s">
+    <row r="4" s="6" customFormat="1" spans="1:12">
+      <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="14" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:12">
-      <c r="A5" s="18" t="s">
+    <row r="5" s="6" customFormat="1" spans="1:12">
+      <c r="A5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="14" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:12">
-      <c r="A6" s="18" t="s">
+    <row r="6" s="6" customFormat="1" spans="1:12">
+      <c r="A6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" s="7" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A7" s="18" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" s="7" customFormat="1" spans="1:12">
-      <c r="A8" s="18" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:12">
+      <c r="A8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" s="16" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A9" s="18" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" s="15" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
+      <c r="A9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" s="7" customFormat="1" spans="1:12">
-      <c r="A10" s="18" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:12">
+      <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="10" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" s="7" customFormat="1" spans="1:12">
-      <c r="A11" s="18" t="s">
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" s="6" customFormat="1" spans="1:12">
+      <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="10" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" s="7" customFormat="1" spans="1:12">
-      <c r="A12" s="18" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" s="6" customFormat="1" spans="1:12">
+      <c r="A12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="10" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" s="7" customFormat="1" spans="1:12">
-      <c r="A13" s="18" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:12">
+      <c r="A13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" s="7" customFormat="1" spans="1:12">
-      <c r="A14" s="18" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" s="6" customFormat="1" spans="1:12">
+      <c r="A14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="10" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" s="7" customFormat="1" spans="1:12">
-      <c r="A15" s="18" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" s="6" customFormat="1" spans="1:12">
+      <c r="A15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="H15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" s="7" customFormat="1" spans="1:12">
-      <c r="A16" s="18" t="s">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" s="6" customFormat="1" spans="1:12">
+      <c r="A16" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="H16" s="18" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="H16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="10" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" s="7" customFormat="1" spans="1:12">
-      <c r="A17" s="18" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" s="6" customFormat="1" spans="1:12">
+      <c r="A17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="H17" s="18" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="H17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="10" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" s="7" customFormat="1" spans="1:12">
-      <c r="A18" s="18" t="s">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="1:12">
+      <c r="A18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="H18" s="18" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="H18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" s="7" customFormat="1" spans="1:12">
-      <c r="A19" s="20" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:12">
+      <c r="A19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" s="7" customFormat="1" spans="1:12">
-      <c r="A20" s="18" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:12">
+      <c r="A20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" s="7" customFormat="1" spans="1:12">
-      <c r="A21" s="18" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:12">
+      <c r="A21" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" s="7" customFormat="1" spans="2:7">
-      <c r="B22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="2:7">
+      <c r="B22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="G22"/>
     </row>
-    <row r="23" s="7" customFormat="1" spans="2:7">
-      <c r="B23" s="22"/>
-      <c r="D23" s="22"/>
+    <row r="23" s="6" customFormat="1" spans="2:7">
+      <c r="B23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="G23"/>
     </row>
-    <row r="24" s="7" customFormat="1" spans="2:7">
+    <row r="24" s="6" customFormat="1" spans="2:7">
       <c r="B24"/>
       <c r="D24"/>
       <c r="G24"/>
@@ -2187,22 +2171,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2328,30 +2312,30 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -2513,7 +2497,7 @@
       <c r="C30" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2527,7 +2511,7 @@
       <c r="C31" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2541,7 +2525,7 @@
       <c r="C32" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2555,7 +2539,7 @@
       <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2569,7 +2553,7 @@
       <c r="C34" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2583,7 +2567,7 @@
       <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2597,7 +2581,7 @@
       <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2611,7 +2595,7 @@
       <c r="C37" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2625,7 +2609,7 @@
       <c r="C38" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2639,7 +2623,7 @@
       <c r="C39" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2653,7 +2637,7 @@
       <c r="C40" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2667,7 +2651,7 @@
       <c r="C41" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2681,7 +2665,7 @@
       <c r="C42" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2695,7 +2679,7 @@
       <c r="C43" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2709,7 +2693,7 @@
       <c r="C44" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2723,7 +2707,7 @@
       <c r="C45" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2737,7 +2721,7 @@
       <c r="C46" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2751,7 +2735,7 @@
       <c r="C47" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2765,7 +2749,7 @@
       <c r="C48" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="14" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2779,7 +2763,7 @@
       <c r="C49" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2793,7 +2777,7 @@
       <c r="C50" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2807,7 +2791,6 @@
       <c r="C52" t="s">
         <v>120</v>
       </c>
-      <c r="D52"/>
       <c r="F52" t="s">
         <v>98</v>
       </c>
@@ -2822,7 +2805,6 @@
       <c r="C53" t="s">
         <v>121</v>
       </c>
-      <c r="D53"/>
       <c r="F53" t="s">
         <v>98</v>
       </c>
@@ -2837,7 +2819,6 @@
       <c r="C54" t="s">
         <v>122</v>
       </c>
-      <c r="D54"/>
       <c r="F54" t="s">
         <v>98</v>
       </c>
@@ -2852,7 +2833,6 @@
       <c r="C55" t="s">
         <v>123</v>
       </c>
-      <c r="D55"/>
       <c r="F55" t="s">
         <v>99</v>
       </c>
@@ -2867,7 +2847,6 @@
       <c r="C56" t="s">
         <v>124</v>
       </c>
-      <c r="D56"/>
       <c r="F56" t="s">
         <v>99</v>
       </c>
@@ -2882,7 +2861,6 @@
       <c r="C57" t="s">
         <v>125</v>
       </c>
-      <c r="D57"/>
       <c r="F57" t="s">
         <v>99</v>
       </c>
@@ -2897,7 +2875,6 @@
       <c r="C58" t="s">
         <v>126</v>
       </c>
-      <c r="D58"/>
       <c r="F58" t="s">
         <v>99</v>
       </c>
@@ -2912,7 +2889,6 @@
       <c r="C59" t="s">
         <v>127</v>
       </c>
-      <c r="D59"/>
       <c r="F59" t="s">
         <v>99</v>
       </c>
@@ -2927,7 +2903,6 @@
       <c r="C60" t="s">
         <v>128</v>
       </c>
-      <c r="D60"/>
       <c r="F60" t="s">
         <v>102</v>
       </c>
@@ -2942,7 +2917,6 @@
       <c r="C61" t="s">
         <v>129</v>
       </c>
-      <c r="D61"/>
       <c r="F61" t="s">
         <v>102</v>
       </c>
@@ -2957,7 +2931,6 @@
       <c r="C62" t="s">
         <v>130</v>
       </c>
-      <c r="D62"/>
       <c r="F62" t="s">
         <v>106</v>
       </c>
@@ -2972,7 +2945,6 @@
       <c r="C63" t="s">
         <v>131</v>
       </c>
-      <c r="D63"/>
       <c r="F63" t="s">
         <v>106</v>
       </c>
@@ -2987,7 +2959,6 @@
       <c r="C64" t="s">
         <v>132</v>
       </c>
-      <c r="D64"/>
       <c r="F64" t="s">
         <v>100</v>
       </c>
@@ -3002,7 +2973,6 @@
       <c r="C65" t="s">
         <v>133</v>
       </c>
-      <c r="D65"/>
       <c r="F65" t="s">
         <v>100</v>
       </c>
@@ -3017,7 +2987,6 @@
       <c r="C66" t="s">
         <v>134</v>
       </c>
-      <c r="D66"/>
       <c r="F66" t="s">
         <v>115</v>
       </c>
@@ -3032,7 +3001,6 @@
       <c r="C67" t="s">
         <v>135</v>
       </c>
-      <c r="D67"/>
       <c r="F67" t="s">
         <v>115</v>
       </c>
@@ -3047,7 +3015,6 @@
       <c r="C68" t="s">
         <v>136</v>
       </c>
-      <c r="D68"/>
       <c r="F68" t="s">
         <v>116</v>
       </c>
@@ -3062,7 +3029,6 @@
       <c r="C69" t="s">
         <v>137</v>
       </c>
-      <c r="D69"/>
       <c r="F69" t="s">
         <v>111</v>
       </c>
@@ -3077,7 +3043,6 @@
       <c r="C70" t="s">
         <v>138</v>
       </c>
-      <c r="D70"/>
       <c r="F70" t="s">
         <v>111</v>
       </c>
@@ -3092,7 +3057,6 @@
       <c r="C71" t="s">
         <v>139</v>
       </c>
-      <c r="D71"/>
       <c r="F71" t="s">
         <v>112</v>
       </c>
@@ -3107,7 +3071,6 @@
       <c r="C72" t="s">
         <v>140</v>
       </c>
-      <c r="D72"/>
       <c r="F72" t="s">
         <v>112</v>
       </c>
@@ -3122,7 +3085,6 @@
       <c r="C73" t="s">
         <v>141</v>
       </c>
-      <c r="D73"/>
       <c r="F73" t="s">
         <v>112</v>
       </c>
@@ -3137,7 +3099,6 @@
       <c r="C74" t="s">
         <v>142</v>
       </c>
-      <c r="D74"/>
       <c r="F74" t="s">
         <v>112</v>
       </c>
@@ -3152,7 +3113,6 @@
       <c r="C75" t="s">
         <v>143</v>
       </c>
-      <c r="D75"/>
       <c r="F75" t="s">
         <v>112</v>
       </c>
@@ -3167,7 +3127,6 @@
       <c r="C76" t="s">
         <v>144</v>
       </c>
-      <c r="D76"/>
       <c r="F76" t="s">
         <v>117</v>
       </c>
@@ -3182,7 +3141,6 @@
       <c r="C77" t="s">
         <v>145</v>
       </c>
-      <c r="D77"/>
       <c r="F77" t="s">
         <v>113</v>
       </c>
@@ -3197,7 +3155,6 @@
       <c r="C78" t="s">
         <v>146</v>
       </c>
-      <c r="D78"/>
       <c r="F78" t="s">
         <v>107</v>
       </c>
@@ -3212,7 +3169,6 @@
       <c r="C79" t="s">
         <v>147</v>
       </c>
-      <c r="D79"/>
       <c r="F79" t="s">
         <v>108</v>
       </c>
@@ -3227,7 +3183,6 @@
       <c r="C80" t="s">
         <v>148</v>
       </c>
-      <c r="D80"/>
       <c r="F80" t="s">
         <v>149</v>
       </c>
@@ -3242,7 +3197,6 @@
       <c r="C81" t="s">
         <v>150</v>
       </c>
-      <c r="D81"/>
       <c r="F81" t="s">
         <v>109</v>
       </c>
@@ -3257,7 +3211,6 @@
       <c r="C82" t="s">
         <v>151</v>
       </c>
-      <c r="D82"/>
       <c r="F82" t="s">
         <v>114</v>
       </c>
@@ -3272,7 +3225,6 @@
       <c r="C83" t="s">
         <v>152</v>
       </c>
-      <c r="D83"/>
       <c r="F83" t="s">
         <v>101</v>
       </c>
@@ -3287,7 +3239,6 @@
       <c r="C84" t="s">
         <v>153</v>
       </c>
-      <c r="D84"/>
       <c r="F84" t="s">
         <v>101</v>
       </c>
@@ -3302,7 +3253,6 @@
       <c r="C85" t="s">
         <v>154</v>
       </c>
-      <c r="D85"/>
       <c r="F85" t="s">
         <v>101</v>
       </c>
@@ -3317,7 +3267,6 @@
       <c r="C86" t="s">
         <v>155</v>
       </c>
-      <c r="D86"/>
       <c r="F86" t="s">
         <v>101</v>
       </c>
@@ -3332,7 +3281,6 @@
       <c r="C87" t="s">
         <v>156</v>
       </c>
-      <c r="D87"/>
       <c r="F87" t="s">
         <v>101</v>
       </c>
@@ -3347,7 +3295,6 @@
       <c r="C88" t="s">
         <v>157</v>
       </c>
-      <c r="D88"/>
       <c r="F88" t="s">
         <v>103</v>
       </c>
@@ -3362,7 +3309,6 @@
       <c r="C89" t="s">
         <v>158</v>
       </c>
-      <c r="D89"/>
       <c r="F89" t="s">
         <v>103</v>
       </c>
@@ -3377,7 +3323,6 @@
       <c r="C90" t="s">
         <v>159</v>
       </c>
-      <c r="D90"/>
       <c r="F90" t="s">
         <v>104</v>
       </c>
@@ -3392,7 +3337,6 @@
       <c r="C91" t="s">
         <v>160</v>
       </c>
-      <c r="D91"/>
       <c r="F91" t="s">
         <v>104</v>
       </c>
@@ -3407,7 +3351,6 @@
       <c r="C92" t="s">
         <v>161</v>
       </c>
-      <c r="D92"/>
       <c r="F92" t="s">
         <v>104</v>
       </c>
@@ -3422,7 +3365,6 @@
       <c r="C93" t="s">
         <v>162</v>
       </c>
-      <c r="D93"/>
       <c r="F93" t="s">
         <v>105</v>
       </c>
@@ -3437,7 +3379,6 @@
       <c r="C94" t="s">
         <v>163</v>
       </c>
-      <c r="D94"/>
       <c r="F94" t="s">
         <v>105</v>
       </c>
@@ -3452,7 +3393,6 @@
       <c r="C95" t="s">
         <v>164</v>
       </c>
-      <c r="D95"/>
       <c r="F95" t="s">
         <v>118</v>
       </c>
@@ -3467,7 +3407,6 @@
       <c r="C96" t="s">
         <v>165</v>
       </c>
-      <c r="D96"/>
       <c r="F96" t="s">
         <v>118</v>
       </c>
@@ -3482,7 +3421,6 @@
       <c r="C97" t="s">
         <v>166</v>
       </c>
-      <c r="D97"/>
       <c r="F97" t="s">
         <v>118</v>
       </c>
@@ -3497,7 +3435,6 @@
       <c r="C98" t="s">
         <v>167</v>
       </c>
-      <c r="D98"/>
       <c r="F98" t="s">
         <v>118</v>
       </c>
@@ -3512,7 +3449,6 @@
       <c r="C99" t="s">
         <v>168</v>
       </c>
-      <c r="D99"/>
       <c r="F99" t="s">
         <v>110</v>
       </c>
@@ -3533,7 +3469,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -3547,18 +3483,18 @@
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B2" t="s">
